--- a/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
+++ b/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
@@ -834,13 +834,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC57DA8A-BCBC-4575-B02B-5730E5DE934C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08B96545-53FD-41B1-89C5-FB19B9C870E6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52EA379B-4CDF-4F0C-B9E1-E9C85E1D0B99}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA58132D-BBB2-454B-9AEF-1B0B03F523F8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F895605E-83C1-4BA2-8E3A-E6118897FE82}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BD642A-BEAD-4053-8C30-1837EB1BF55A}"/>
 </file>